--- a/data/tehilim-data/40.xlsx
+++ b/data/tehilim-data/40.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="328">
   <si>
     <t>original</t>
   </si>
@@ -22,238 +22,244 @@
     <t>א</t>
   </si>
   <si>
-    <t>לַמְנַצֵּחַ</t>
-  </si>
-  <si>
-    <t>Начальнику хора</t>
-  </si>
-  <si>
-    <t>מִזְמוֹר</t>
-  </si>
-  <si>
-    <t>псалом</t>
-  </si>
-  <si>
-    <t>לְדָוִד</t>
+    <t>למנצח</t>
+  </si>
+  <si>
+    <t>Руководителю</t>
+  </si>
+  <si>
+    <t>לדוד</t>
   </si>
   <si>
     <t>Давида</t>
   </si>
   <si>
+    <t>מזמור</t>
+  </si>
+  <si>
+    <t>песнопение</t>
+  </si>
+  <si>
     <t>ב</t>
   </si>
   <si>
-    <t>קַוֹּה</t>
-  </si>
-  <si>
-    <t>твердо</t>
-  </si>
-  <si>
-    <t>קִוִּיתִי</t>
-  </si>
-  <si>
-    <t>уповал</t>
+    <t>קוה</t>
+  </si>
+  <si>
+    <t>Надеждою</t>
+  </si>
+  <si>
+    <t>קויתי</t>
+  </si>
+  <si>
+    <t>надеялся</t>
+  </si>
+  <si>
+    <t>יהוה</t>
+  </si>
+  <si>
+    <t>я на Господа</t>
+  </si>
+  <si>
+    <t>ויט</t>
+  </si>
+  <si>
+    <t>и Он</t>
+  </si>
+  <si>
+    <t>אלי</t>
+  </si>
+  <si>
+    <t>преклонился</t>
+  </si>
+  <si>
+    <t>וישמע</t>
+  </si>
+  <si>
+    <t>ко мне</t>
+  </si>
+  <si>
+    <t>שועתי</t>
+  </si>
+  <si>
+    <t>и услышал вопль мой</t>
+  </si>
+  <si>
+    <t>ג</t>
+  </si>
+  <si>
+    <t>ויאלני</t>
+  </si>
+  <si>
+    <t>Извлек</t>
+  </si>
+  <si>
+    <t>מבור</t>
+  </si>
+  <si>
+    <t>меня из</t>
+  </si>
+  <si>
+    <t>שאון</t>
+  </si>
+  <si>
+    <t>страшного</t>
+  </si>
+  <si>
+    <t>מטיט</t>
+  </si>
+  <si>
+    <t>рва</t>
+  </si>
+  <si>
+    <t>היון</t>
+  </si>
+  <si>
+    <t>из тенистого</t>
+  </si>
+  <si>
+    <t>ויקם</t>
+  </si>
+  <si>
+    <t>болота</t>
+  </si>
+  <si>
+    <t>על</t>
+  </si>
+  <si>
+    <t>и поставил</t>
+  </si>
+  <si>
+    <t>סלע</t>
+  </si>
+  <si>
+    <t>на</t>
+  </si>
+  <si>
+    <t>רגלי</t>
+  </si>
+  <si>
+    <t>скалу</t>
+  </si>
+  <si>
+    <t>כּוֹנֵן</t>
+  </si>
+  <si>
+    <t>каменную</t>
+  </si>
+  <si>
+    <t>אֲשֻׁרָי</t>
+  </si>
+  <si>
+    <t>ноги мои</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>וַיִּתֵּן</t>
+  </si>
+  <si>
+    <t>утвердил</t>
+  </si>
+  <si>
+    <t>בְּפִי</t>
+  </si>
+  <si>
+    <t>ступени мои</t>
+  </si>
+  <si>
+    <t>ויתן</t>
+  </si>
+  <si>
+    <t>И вложил</t>
+  </si>
+  <si>
+    <t>בפי</t>
+  </si>
+  <si>
+    <t>в уста</t>
+  </si>
+  <si>
+    <t>שיר</t>
+  </si>
+  <si>
+    <t>мои</t>
+  </si>
+  <si>
+    <t>חדש</t>
+  </si>
+  <si>
+    <t>новую</t>
+  </si>
+  <si>
+    <t>תהלה</t>
+  </si>
+  <si>
+    <t>песнь</t>
+  </si>
+  <si>
+    <t>לאלהינו</t>
+  </si>
+  <si>
+    <t>хвалу Богу нашему</t>
+  </si>
+  <si>
+    <t>וְיִירָאוּ</t>
+  </si>
+  <si>
+    <t>увидят</t>
+  </si>
+  <si>
+    <t>וַיִּבְטְחוּ</t>
+  </si>
+  <si>
+    <t>многие</t>
+  </si>
+  <si>
+    <t>בַּיהוָה</t>
+  </si>
+  <si>
+    <t>и убоятся</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>אַשְׁרֵי</t>
+  </si>
+  <si>
+    <t>и будут уповать</t>
+  </si>
+  <si>
+    <t>הַגֶּבֶר</t>
+  </si>
+  <si>
+    <t>блажен</t>
+  </si>
+  <si>
+    <t>אֲשֶׁר</t>
+  </si>
+  <si>
+    <t>человек</t>
+  </si>
+  <si>
+    <t>שָׂם</t>
+  </si>
+  <si>
+    <t>который</t>
   </si>
   <si>
     <t>יְהוָה</t>
   </si>
   <si>
+    <t>надеется</t>
+  </si>
+  <si>
+    <t>מִבְטַחוֹ</t>
+  </si>
+  <si>
     <t>на Господа</t>
-  </si>
-  <si>
-    <t>וַיֵּט</t>
-  </si>
-  <si>
-    <t>и Он</t>
-  </si>
-  <si>
-    <t>אֵלַי</t>
-  </si>
-  <si>
-    <t>преклонился</t>
-  </si>
-  <si>
-    <t>וַיִּשְׁמַע</t>
-  </si>
-  <si>
-    <t>ко мне</t>
-  </si>
-  <si>
-    <t>שַׁוְעָתִי</t>
-  </si>
-  <si>
-    <t>и услышал</t>
-  </si>
-  <si>
-    <t>ג</t>
-  </si>
-  <si>
-    <t>וַיַּעֲלֵנִי</t>
-  </si>
-  <si>
-    <t>мольбу мою</t>
-  </si>
-  <si>
-    <t>מִבּוֹר</t>
-  </si>
-  <si>
-    <t>и извлек меня</t>
-  </si>
-  <si>
-    <t>שָׁאוֹן</t>
-  </si>
-  <si>
-    <t>из страшного</t>
-  </si>
-  <si>
-    <t>מִטִּיט</t>
-  </si>
-  <si>
-    <t>рва</t>
-  </si>
-  <si>
-    <t>הַיָּוֵן</t>
-  </si>
-  <si>
-    <t>из</t>
-  </si>
-  <si>
-    <t>וַיָּקֶם</t>
-  </si>
-  <si>
-    <t>тенистого</t>
-  </si>
-  <si>
-    <t>עַל</t>
-  </si>
-  <si>
-    <t>болота</t>
-  </si>
-  <si>
-    <t>סֶלַע</t>
-  </si>
-  <si>
-    <t>и поставил</t>
-  </si>
-  <si>
-    <t>רַגְלַי</t>
-  </si>
-  <si>
-    <t>на</t>
-  </si>
-  <si>
-    <t>כּוֹנֵן</t>
-  </si>
-  <si>
-    <t>каменную</t>
-  </si>
-  <si>
-    <t>אֲשֻׁרָי</t>
-  </si>
-  <si>
-    <t>ноги мои</t>
-  </si>
-  <si>
-    <t>ד</t>
-  </si>
-  <si>
-    <t>וַיִּתֵּן</t>
-  </si>
-  <si>
-    <t>утвердил</t>
-  </si>
-  <si>
-    <t>בְּפִי</t>
-  </si>
-  <si>
-    <t>ступени мои</t>
-  </si>
-  <si>
-    <t>שִׁיר</t>
-  </si>
-  <si>
-    <t>и вложил</t>
-  </si>
-  <si>
-    <t>חָדָשׁ</t>
-  </si>
-  <si>
-    <t>в уста мои</t>
-  </si>
-  <si>
-    <t>תְּהִלָּה</t>
-  </si>
-  <si>
-    <t>новую</t>
-  </si>
-  <si>
-    <t>לֵאלֹהֵינוּ</t>
-  </si>
-  <si>
-    <t>песнь</t>
-  </si>
-  <si>
-    <t>יִרְאוּ</t>
-  </si>
-  <si>
-    <t>хвалу</t>
-  </si>
-  <si>
-    <t>רַבִּים</t>
-  </si>
-  <si>
-    <t>Богу нашему</t>
-  </si>
-  <si>
-    <t>וְיִירָאוּ</t>
-  </si>
-  <si>
-    <t>увидят</t>
-  </si>
-  <si>
-    <t>וַיִּבְטְחוּ</t>
-  </si>
-  <si>
-    <t>многие</t>
-  </si>
-  <si>
-    <t>בַּיהוָה</t>
-  </si>
-  <si>
-    <t>и убоятся</t>
-  </si>
-  <si>
-    <t>ה</t>
-  </si>
-  <si>
-    <t>אַשְׁרֵי</t>
-  </si>
-  <si>
-    <t>и будут уповать</t>
-  </si>
-  <si>
-    <t>הַגֶּבֶר</t>
-  </si>
-  <si>
-    <t>блажен</t>
-  </si>
-  <si>
-    <t>אֲשֶׁר</t>
-  </si>
-  <si>
-    <t>человек</t>
-  </si>
-  <si>
-    <t>שָׂם</t>
-  </si>
-  <si>
-    <t>который</t>
-  </si>
-  <si>
-    <t>надеется</t>
-  </si>
-  <si>
-    <t>מִבְטַחוֹ</t>
   </si>
   <si>
     <t>וְלֹא־פָנָה</t>
@@ -995,7 +1001,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1010,6 +1016,11 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1033,12 +1044,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1047,14 +1058,23 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2009,10 +2029,10 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="3"/>
@@ -2041,10 +2061,10 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="3"/>
@@ -2073,10 +2093,10 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="1">
         <v>4.0</v>
       </c>
       <c r="C26" s="3"/>
@@ -2105,10 +2125,10 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="3"/>
@@ -2137,10 +2157,10 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="3"/>
@@ -2175,7 +2195,7 @@
       <c r="B29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2207,7 +2227,7 @@
       <c r="B30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -2239,7 +2259,7 @@
       <c r="B31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2271,7 +2291,7 @@
       <c r="B32" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2303,7 +2323,7 @@
       <c r="B33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2335,7 +2355,7 @@
       <c r="B34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2361,10 +2381,10 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C35" s="3"/>
@@ -2393,10 +2413,10 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="3"/>
@@ -2425,10 +2445,10 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="3"/>
@@ -2457,10 +2477,10 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="1">
         <v>5.0</v>
       </c>
       <c r="C38" s="3"/>
@@ -2489,10 +2509,10 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="3"/>
@@ -2521,10 +2541,10 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="3"/>
@@ -2553,10 +2573,10 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="3"/>
@@ -2585,10 +2605,10 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="3"/>
@@ -2617,11 +2637,11 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>79</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2649,11 +2669,11 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>15</v>
+      <c r="A44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2681,11 +2701,11 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>82</v>
+      <c r="A45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2713,11 +2733,11 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>84</v>
+      <c r="A46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2745,11 +2765,11 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>86</v>
+      <c r="A47" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2777,11 +2797,11 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>88</v>
+      <c r="A48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2809,10 +2829,10 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="7">
+      <c r="A49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="1">
         <v>6.0</v>
       </c>
       <c r="C49" s="3"/>
@@ -2841,11 +2861,11 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>91</v>
+      <c r="A50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2873,11 +2893,11 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>93</v>
+      <c r="A51" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2905,11 +2925,11 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>95</v>
+      <c r="A52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2937,11 +2957,11 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>96</v>
+      <c r="A53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2969,11 +2989,11 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>98</v>
+      <c r="A54" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3001,11 +3021,11 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>100</v>
+      <c r="A55" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -3033,11 +3053,11 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>102</v>
+      <c r="A56" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3065,11 +3085,11 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>104</v>
+      <c r="A57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -3097,11 +3117,11 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>106</v>
+      <c r="A58" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -3129,11 +3149,11 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>108</v>
+      <c r="A59" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3161,11 +3181,11 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>110</v>
+      <c r="A60" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -3193,11 +3213,11 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>112</v>
+      <c r="A61" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -3225,11 +3245,11 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>114</v>
+      <c r="A62" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -3257,11 +3277,11 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>116</v>
+      <c r="A63" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -3289,10 +3309,10 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="7">
+      <c r="A64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="1">
         <v>7.0</v>
       </c>
       <c r="C64" s="3"/>
@@ -3321,11 +3341,11 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>119</v>
+      <c r="A65" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -3353,11 +3373,11 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>121</v>
+      <c r="A66" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -3385,11 +3405,11 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>123</v>
+      <c r="A67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3417,11 +3437,11 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>125</v>
+      <c r="A68" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3449,11 +3469,11 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>127</v>
+      <c r="A69" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -3481,8 +3501,8 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="s">
-        <v>128</v>
+      <c r="A70" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3511,11 +3531,11 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>130</v>
+      <c r="A71" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3543,11 +3563,11 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>132</v>
+      <c r="A72" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3575,11 +3595,11 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>134</v>
+      <c r="A73" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3607,11 +3627,11 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>136</v>
+      <c r="A74" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3639,10 +3659,10 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B75" s="7">
+      <c r="A75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="1">
         <v>8.0</v>
       </c>
       <c r="C75" s="3"/>
@@ -3671,11 +3691,11 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>139</v>
+      <c r="A76" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3703,11 +3723,11 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>141</v>
+      <c r="A77" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3735,11 +3755,11 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>143</v>
+      <c r="A78" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3767,11 +3787,11 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>145</v>
+      <c r="A79" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3799,11 +3819,11 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>147</v>
+      <c r="A80" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3831,11 +3851,11 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>149</v>
+      <c r="A81" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3863,11 +3883,11 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>151</v>
+      <c r="A82" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3895,10 +3915,10 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83">
-      <c r="A83" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83" s="7">
+      <c r="A83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="1">
         <v>9.0</v>
       </c>
       <c r="C83" s="3"/>
@@ -3927,11 +3947,11 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>154</v>
+      <c r="A84" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3959,11 +3979,11 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>156</v>
+      <c r="A85" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3991,11 +4011,11 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>98</v>
+      <c r="A86" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -4023,11 +4043,11 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>158</v>
+      <c r="A87" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4055,11 +4075,11 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>160</v>
+      <c r="A88" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -4087,11 +4107,11 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>162</v>
+      <c r="A89" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4119,11 +4139,11 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>164</v>
+      <c r="A90" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -4151,10 +4171,10 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91">
-      <c r="A91" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B91" s="7">
+      <c r="A91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="1">
         <v>10.0</v>
       </c>
       <c r="C91" s="3"/>
@@ -4183,11 +4203,11 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>167</v>
+      <c r="A92" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4215,11 +4235,11 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>169</v>
+      <c r="A93" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4247,11 +4267,11 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94">
-      <c r="A94" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>171</v>
+      <c r="A94" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4279,11 +4299,11 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>173</v>
+      <c r="A95" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4311,11 +4331,11 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>143</v>
+      <c r="A96" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4343,11 +4363,11 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>175</v>
+      <c r="A97" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4375,11 +4395,11 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>134</v>
+      <c r="A98" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4407,11 +4427,11 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>177</v>
+      <c r="A99" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4439,11 +4459,11 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>96</v>
+      <c r="A100" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4471,11 +4491,11 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>95</v>
+      <c r="A101" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4503,11 +4523,11 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>179</v>
+      <c r="A102" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4535,10 +4555,10 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B103" s="7">
+      <c r="A103" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="1">
         <v>11.0</v>
       </c>
       <c r="C103" s="3"/>
@@ -4567,11 +4587,11 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>182</v>
+      <c r="A104" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4599,11 +4619,11 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>134</v>
+      <c r="A105" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4631,11 +4651,11 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>184</v>
+      <c r="A106" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4663,11 +4683,11 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>185</v>
+      <c r="A107" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4695,11 +4715,11 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>187</v>
+      <c r="A108" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4727,11 +4747,11 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>189</v>
+      <c r="A109" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4759,11 +4779,11 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>191</v>
+      <c r="A110" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4791,11 +4811,11 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>192</v>
+      <c r="A111" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4823,11 +4843,11 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>134</v>
+      <c r="A112" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4855,11 +4875,11 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>194</v>
+      <c r="A113" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4887,11 +4907,11 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114">
-      <c r="A114" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>196</v>
+      <c r="A114" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4919,11 +4939,11 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>198</v>
+      <c r="A115" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4951,11 +4971,11 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>171</v>
+      <c r="A116" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4983,11 +5003,11 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>173</v>
+      <c r="A117" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -5015,10 +5035,10 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118">
-      <c r="A118" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B118" s="7">
+      <c r="A118" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" s="1">
         <v>12.0</v>
       </c>
       <c r="C118" s="3"/>
@@ -5047,11 +5067,11 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119">
-      <c r="A119" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>95</v>
+      <c r="A119" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -5079,11 +5099,11 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>96</v>
+      <c r="A120" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -5111,11 +5131,11 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>134</v>
+      <c r="A121" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -5143,11 +5163,11 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>202</v>
+      <c r="A122" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -5175,11 +5195,11 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>204</v>
+      <c r="A123" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -5207,11 +5227,11 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>206</v>
+      <c r="A124" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -5239,11 +5259,11 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>207</v>
+      <c r="A125" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -5271,11 +5291,11 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126">
-      <c r="A126" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>208</v>
+      <c r="A126" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -5303,11 +5323,11 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>210</v>
+      <c r="A127" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -5335,11 +5355,11 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>212</v>
+      <c r="A128" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -5367,10 +5387,10 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129">
-      <c r="A129" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B129" s="7">
+      <c r="A129" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" s="1">
         <v>13.0</v>
       </c>
       <c r="C129" s="3"/>
@@ -5399,11 +5419,11 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130">
-      <c r="A130" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>215</v>
+      <c r="A130" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -5431,11 +5451,11 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131">
-      <c r="A131" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>217</v>
+      <c r="A131" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -5463,11 +5483,11 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132">
-      <c r="A132" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>164</v>
+      <c r="A132" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -5495,11 +5515,11 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133">
-      <c r="A133" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>220</v>
+      <c r="A133" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -5527,11 +5547,11 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134">
-      <c r="A134" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>222</v>
+      <c r="A134" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -5559,11 +5579,11 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135">
-      <c r="A135" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>134</v>
+      <c r="A135" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5591,11 +5611,11 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136">
-      <c r="A136" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>225</v>
+      <c r="A136" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5623,11 +5643,11 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137">
-      <c r="A137" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>227</v>
+      <c r="A137" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5655,11 +5675,11 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138">
-      <c r="A138" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>229</v>
+      <c r="A138" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -5687,11 +5707,11 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139">
-      <c r="A139" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>231</v>
+      <c r="A139" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -5719,11 +5739,11 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140">
-      <c r="A140" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>233</v>
+      <c r="A140" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5751,11 +5771,11 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141">
-      <c r="A141" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>234</v>
+      <c r="A141" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5783,11 +5803,11 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142">
-      <c r="A142" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>236</v>
+      <c r="A142" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5815,11 +5835,11 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143">
-      <c r="A143" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>238</v>
+      <c r="A143" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5847,11 +5867,11 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144">
-      <c r="A144" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>240</v>
+      <c r="A144" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5879,11 +5899,11 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>242</v>
+      <c r="A145" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5911,10 +5931,10 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146">
-      <c r="A146" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B146" s="7">
+      <c r="A146" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B146" s="1">
         <v>14.0</v>
       </c>
       <c r="C146" s="3"/>
@@ -5943,11 +5963,11 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147">
-      <c r="A147" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>245</v>
+      <c r="A147" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5975,11 +5995,11 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148">
-      <c r="A148" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>96</v>
+      <c r="A148" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -6007,11 +6027,11 @@
       <c r="Z148" s="3"/>
     </row>
     <row r="149">
-      <c r="A149" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>247</v>
+      <c r="A149" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -6039,11 +6059,11 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150">
-      <c r="A150" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>96</v>
+      <c r="A150" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -6071,11 +6091,11 @@
       <c r="Z150" s="3"/>
     </row>
     <row r="151">
-      <c r="A151" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>249</v>
+      <c r="A151" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -6103,11 +6123,11 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152">
-      <c r="A152" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>251</v>
+      <c r="A152" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -6135,10 +6155,10 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153">
-      <c r="A153" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B153" s="7">
+      <c r="A153" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B153" s="1">
         <v>15.0</v>
       </c>
       <c r="C153" s="3"/>
@@ -6167,11 +6187,11 @@
       <c r="Z153" s="3"/>
     </row>
     <row r="154">
-      <c r="A154" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>254</v>
+      <c r="A154" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -6199,11 +6219,11 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>256</v>
+      <c r="A155" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -6231,11 +6251,11 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156">
-      <c r="A156" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>258</v>
+      <c r="A156" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -6263,11 +6283,11 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157">
-      <c r="A157" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>260</v>
+      <c r="A157" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -6295,11 +6315,11 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158">
-      <c r="A158" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>262</v>
+      <c r="A158" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -6327,11 +6347,11 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159">
-      <c r="A159" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>264</v>
+      <c r="A159" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -6359,11 +6379,11 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160">
-      <c r="A160" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>266</v>
+      <c r="A160" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -6391,11 +6411,11 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161">
-      <c r="A161" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>268</v>
+      <c r="A161" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -6423,11 +6443,11 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162">
-      <c r="A162" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>270</v>
+      <c r="A162" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -6455,11 +6475,11 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163">
-      <c r="A163" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>272</v>
+      <c r="A163" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -6487,11 +6507,11 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164">
-      <c r="A164" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>274</v>
+      <c r="A164" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -6519,10 +6539,10 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165">
-      <c r="A165" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B165" s="7">
+      <c r="A165" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B165" s="1">
         <v>16.0</v>
       </c>
       <c r="C165" s="3"/>
@@ -6551,11 +6571,11 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166">
-      <c r="A166" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>277</v>
+      <c r="A166" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -6583,11 +6603,11 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167">
-      <c r="A167" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>279</v>
+      <c r="A167" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -6615,11 +6635,11 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168">
-      <c r="A168" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>281</v>
+      <c r="A168" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6647,11 +6667,11 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169">
-      <c r="A169" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>283</v>
+      <c r="A169" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -6679,11 +6699,11 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170">
-      <c r="A170" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>285</v>
+      <c r="A170" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -6711,11 +6731,11 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171">
-      <c r="A171" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>287</v>
+      <c r="A171" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -6743,11 +6763,11 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172">
-      <c r="A172" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>287</v>
+      <c r="A172" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6775,10 +6795,10 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173">
-      <c r="A173" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B173" s="7">
+      <c r="A173" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B173" s="1">
         <v>17.0</v>
       </c>
       <c r="C173" s="3"/>
@@ -6807,11 +6827,11 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174">
-      <c r="A174" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>290</v>
+      <c r="A174" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6839,11 +6859,11 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175">
-      <c r="A175" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>292</v>
+      <c r="A175" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6871,11 +6891,11 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176">
-      <c r="A176" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>294</v>
+      <c r="A176" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6903,11 +6923,11 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177">
-      <c r="A177" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>296</v>
+      <c r="A177" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6935,11 +6955,11 @@
       <c r="Z177" s="3"/>
     </row>
     <row r="178">
-      <c r="A178" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>298</v>
+      <c r="A178" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6967,11 +6987,11 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179">
-      <c r="A179" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>210</v>
+      <c r="A179" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -6999,11 +7019,11 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180">
-      <c r="A180" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>301</v>
+      <c r="A180" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -7031,11 +7051,11 @@
       <c r="Z180" s="3"/>
     </row>
     <row r="181">
-      <c r="A181" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>303</v>
+      <c r="A181" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -7063,11 +7083,11 @@
       <c r="Z181" s="3"/>
     </row>
     <row r="182">
-      <c r="A182" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>305</v>
+      <c r="A182" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -7095,11 +7115,11 @@
       <c r="Z182" s="3"/>
     </row>
     <row r="183">
-      <c r="A183" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>307</v>
+      <c r="A183" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -7127,10 +7147,10 @@
       <c r="Z183" s="3"/>
     </row>
     <row r="184">
-      <c r="A184" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B184" s="7">
+      <c r="A184" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B184" s="1">
         <v>18.0</v>
       </c>
       <c r="C184" s="3"/>
@@ -7159,11 +7179,11 @@
       <c r="Z184" s="3"/>
     </row>
     <row r="185">
-      <c r="A185" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>310</v>
+      <c r="A185" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -7191,11 +7211,11 @@
       <c r="Z185" s="3"/>
     </row>
     <row r="186">
-      <c r="A186" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>312</v>
+      <c r="A186" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -7223,11 +7243,11 @@
       <c r="Z186" s="3"/>
     </row>
     <row r="187">
-      <c r="A187" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>314</v>
+      <c r="A187" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -7255,11 +7275,11 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188">
-      <c r="A188" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>316</v>
+      <c r="A188" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -7287,11 +7307,11 @@
       <c r="Z188" s="3"/>
     </row>
     <row r="189">
-      <c r="A189" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>318</v>
+      <c r="A189" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -7319,11 +7339,11 @@
       <c r="Z189" s="3"/>
     </row>
     <row r="190">
-      <c r="A190" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>319</v>
+      <c r="A190" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -7351,11 +7371,11 @@
       <c r="Z190" s="3"/>
     </row>
     <row r="191">
-      <c r="A191" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>321</v>
+      <c r="A191" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -7383,11 +7403,11 @@
       <c r="Z191" s="3"/>
     </row>
     <row r="192">
-      <c r="A192" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>323</v>
+      <c r="A192" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -7415,11 +7435,11 @@
       <c r="Z192" s="3"/>
     </row>
     <row r="193">
-      <c r="A193" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>95</v>
+      <c r="A193" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -7447,11 +7467,11 @@
       <c r="Z193" s="3"/>
     </row>
     <row r="194">
-      <c r="A194" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>98</v>
+      <c r="A194" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -7479,11 +7499,11 @@
       <c r="Z194" s="3"/>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>325</v>
+      <c r="A195" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -7511,7 +7531,7 @@
       <c r="Z195" s="3"/>
     </row>
     <row r="196">
-      <c r="A196" s="5"/>
+      <c r="A196" s="7"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -7539,7 +7559,7 @@
       <c r="Z196" s="3"/>
     </row>
     <row r="197">
-      <c r="A197" s="5"/>
+      <c r="A197" s="7"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -7567,7 +7587,7 @@
       <c r="Z197" s="3"/>
     </row>
     <row r="198">
-      <c r="A198" s="5"/>
+      <c r="A198" s="7"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -7595,7 +7615,7 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199">
-      <c r="A199" s="5"/>
+      <c r="A199" s="7"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -7623,7 +7643,7 @@
       <c r="Z199" s="3"/>
     </row>
     <row r="200">
-      <c r="A200" s="5"/>
+      <c r="A200" s="10"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -7651,7 +7671,7 @@
       <c r="Z200" s="3"/>
     </row>
     <row r="201">
-      <c r="A201" s="5"/>
+      <c r="A201" s="10"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -7679,7 +7699,7 @@
       <c r="Z201" s="3"/>
     </row>
     <row r="202">
-      <c r="A202" s="5"/>
+      <c r="A202" s="10"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -7707,7 +7727,7 @@
       <c r="Z202" s="3"/>
     </row>
     <row r="203">
-      <c r="A203" s="5"/>
+      <c r="A203" s="10"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -7735,7 +7755,7 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204">
-      <c r="A204" s="5"/>
+      <c r="A204" s="10"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -7763,7 +7783,7 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205">
-      <c r="A205" s="5"/>
+      <c r="A205" s="10"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -7791,7 +7811,7 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206">
-      <c r="A206" s="5"/>
+      <c r="A206" s="10"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
